--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771436.438230085</v>
+        <v>1871952.698584809</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5598421.987721361</v>
+        <v>6023133.973101042</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>59.18212589108353</v>
       </c>
       <c r="F2" t="n">
-        <v>53.8210290422683</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>116.0434079398612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -874,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738364</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>397.477234942647</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>83.71046610478354</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>229.7832048723437</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>377.6976902451405</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>155.3102899721445</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.91406253606281</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>109.142675762685</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>308.5266790008299</v>
       </c>
       <c r="D11" t="n">
-        <v>383.0041779688071</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1531,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>159.9413188205006</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1576,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>296.8022056924776</v>
       </c>
       <c r="C14" t="n">
-        <v>169.6154283231836</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>90.59002589087493</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>43.77283765622106</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>35.47248331510059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2138,13 +2140,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>99.2861660332424</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
-        <v>48.28314334362814</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.6988144892033</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>103.3456594571955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>229.1468391339981</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>79.91587893911135</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>54.66258501924847</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3661,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016041</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776964</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>125.6544692828921</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>144.8863753071204</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>104.6905595884843</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>27.0795002619469</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>134.2263799291272</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>378.6556239648835</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,13 +4036,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4123134150716</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4186,22 +4188,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>140.4342819615948</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494637</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>893.9996686250441</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C2" t="n">
-        <v>859.8975998488716</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D2" t="n">
-        <v>828.0282190637201</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E2" t="n">
-        <v>798.2938782624194</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1743.687422190584</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.544958769894</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.299239109952</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="3">
@@ -4425,10 +4427,10 @@
         <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>741.4772326516122</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4522,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.9744364820456</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>542.872367705873</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D5" t="n">
-        <v>511.0029869207216</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
         <v>53.40121652862856</v>
@@ -4577,7 +4579,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1426.662190047585</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1007.519726626896</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1003.274006966953</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4661,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1605.270802492989</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1359.879047826402</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.0264917116014</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>271.8840188950247</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>240.0146381098733</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>210.2802973085725</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4811,16 +4813,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1559.714245277141</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X8" t="n">
-        <v>1140.571781856452</v>
+        <v>2174.854186692635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1136.326062196509</v>
+        <v>2170.608467032693</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4996,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1693.062784852649</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1447.671030186061</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1220.251359500169</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>732.1294612527605</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>732.1294612527605</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D11" t="n">
-        <v>345.2565542135613</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E11" t="n">
-        <v>345.2565542135613</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F11" t="n">
-        <v>345.2565542135613</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219836</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219836</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.030453028937</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.413502962763</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>1559.558048373797</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1140.415584953107</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>732.1294612527605</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N12" t="n">
-        <v>56.12639965677763</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="O12" t="n">
-        <v>484.0630267508877</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1130.863455167657</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>958.301743650882</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.368188264949</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.488741843405</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.05574109651</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.10023296694</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.073828553232</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.682073886644</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.682073886644</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1779.625275500758</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C14" t="n">
-        <v>1608.296560022795</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D14" t="n">
-        <v>1608.296560022795</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.52181518109</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902975</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135613</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677763</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677763</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219836</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2547.097680155898</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2184.480730089725</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.625275500758</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1779.625275500758</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1779.625275500758</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677763</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="N15" t="n">
-        <v>56.12639965677763</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="O15" t="n">
-        <v>750.6905954094008</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="P15" t="n">
-        <v>1445.254791162024</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.8616057763934</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>752.2998942596183</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>752.2998942596183</v>
+        <v>517.7793272676133</v>
       </c>
       <c r="E16" t="n">
-        <v>582.5418905103556</v>
+        <v>348.0213235183506</v>
       </c>
       <c r="F16" t="n">
-        <v>405.8348364721119</v>
+        <v>348.0213235183506</v>
       </c>
       <c r="G16" t="n">
-        <v>240.2435614979395</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3413871883141</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1344.099895181272</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.680224495381</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>934.6074576929161</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5786,10 +5788,10 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5838,16 +5840,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5932,22 +5934,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300483</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886775</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
         <v>1600.55729028754</v>
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,19 +6077,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1656.801388721157</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.187678435286</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>917.6259669185112</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>751.7479741200339</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>581.9899703707711</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>405.2829163325273</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>239.691641358355</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840165</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1282.006297154273</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6235,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840165</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,28 +6542,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.552685307369</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.552685307369</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.552685307369</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6646,19 +6648,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
         <v>1371.99516675259</v>
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
         <v>673.1212928181459</v>
@@ -6886,22 +6888,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1676.191041204865</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.799286538277</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.379615852385</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6940,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>3963.708282215619</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785925</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785925</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2642.287896536276</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2396.408450114731</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,25 +7174,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>451.9501773887582</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557487</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7199,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716197</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2411.337553830592</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2132.904553083697</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1618.988392621439</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C41" t="n">
-        <v>1180.845919804862</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1180.845919804862</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>747.0711749631575</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12639965677763</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="M41" t="n">
-        <v>56.12639965677763</v>
+        <v>1866.941465224278</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219836</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V41" t="n">
-        <v>2184.480730089725</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W41" t="n">
-        <v>2184.480730089725</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X41" t="n">
-        <v>1765.338266669035</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y41" t="n">
-        <v>1765.338266669035</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>736.859919727155</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="L42" t="n">
-        <v>1431.424115479778</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="M42" t="n">
-        <v>1431.424115479778</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="N42" t="n">
-        <v>1431.424115479778</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="O42" t="n">
-        <v>1431.424115479778</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="P42" t="n">
-        <v>1431.424115479778</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>995.2823859590335</v>
+        <v>918.290317906933</v>
       </c>
       <c r="C43" t="n">
-        <v>822.7206744422584</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="D43" t="n">
-        <v>656.8426816437811</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E43" t="n">
-        <v>487.0846778945184</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F43" t="n">
-        <v>310.3776238562746</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2218.894342573778</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1931.938834444208</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1659.9124300305</v>
+        <v>1582.920361978399</v>
       </c>
       <c r="X43" t="n">
-        <v>1414.520675363912</v>
+        <v>1337.528607311812</v>
       </c>
       <c r="Y43" t="n">
-        <v>1187.101004678021</v>
+        <v>1110.10893662592</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1211.26645662093</v>
+        <v>2466.979950121664</v>
       </c>
       <c r="C44" t="n">
-        <v>773.1239838043537</v>
+        <v>2028.837477305088</v>
       </c>
       <c r="D44" t="n">
-        <v>773.1239838043537</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>773.1239838043537</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2565542135613</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1286096224173</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>176.1286096224173</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L44" t="n">
-        <v>176.1286096224173</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M44" t="n">
-        <v>870.6928053750404</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N44" t="n">
-        <v>870.6928053750404</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127664</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880287</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.030453028937</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.413502962763</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.413502962763</v>
+        <v>3720.708107727608</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.552580321277</v>
+        <v>3301.565644306919</v>
       </c>
       <c r="Y44" t="n">
-        <v>1211.26645662093</v>
+        <v>2893.279520606572</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K45" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.248920375613</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.248920375613</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.248920375613</v>
+        <v>279.374977592049</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.248920375613</v>
+        <v>279.374977592049</v>
       </c>
       <c r="P45" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2350.274009500729</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2071.841008753834</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8073,13 +8075,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888435</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8225,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P6" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="P6" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8459,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8471,7 +8473,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8693,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>651.931657540612</v>
+        <v>39.34908037598484</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="O12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>651.931657540612</v>
+        <v>7.71589676577878</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>276.880171690467</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>840.7541590122592</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9419,7 +9421,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>19.94667551886812</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>363.3683445154879</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>353.2215526444228</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>363.3683445154875</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10908,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>948.3041150982283</v>
       </c>
       <c r="N41" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.8505511674832</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>406.6119088543373</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>532.2671340056907</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>125.2343690875811</v>
       </c>
       <c r="D11" t="n">
-        <v>48.54650900849276</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.277894049991886</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48.19697732171628</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>125.2343690875811</v>
       </c>
       <c r="C14" t="n">
-        <v>264.1456197652274</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>73.6291869796176</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>44.00051207685035</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
-        <v>90.22000922290108</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.446659489829472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>40.15930123557328</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>90.92021546249596</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>102.9863699957348</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.5921776627229</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>277.1501994729383</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>329.0704884999266</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>248.5691704774788</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.0797604404441</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>52.89506301241636</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>73.53872537141081</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>144.1344859240864</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348714.2396882075</v>
+        <v>494071.4709885491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348714.2396882075</v>
+        <v>494071.4709885492</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373524</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>348714.2396882075</v>
+        <v>494071.4709885492</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348714.2396882075</v>
+        <v>494071.4709885494</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178065</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.6032414118</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661555</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030141</v>
@@ -26341,19 +26343,19 @@
         <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="N2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.6032414119</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045616</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.08170334076</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085233</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085233</v>
       </c>
       <c r="P4" t="n">
-        <v>533.69182688737</v>
+        <v>756.1546847085234</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9306.139446246714</v>
+        <v>-9306.139446246787</v>
       </c>
       <c r="C6" t="n">
-        <v>214393.5591377981</v>
+        <v>214393.559137798</v>
       </c>
       <c r="D6" t="n">
-        <v>214393.5591377981</v>
+        <v>214393.559137798</v>
       </c>
       <c r="E6" t="n">
-        <v>208174.9275996611</v>
+        <v>147866.4195026266</v>
       </c>
       <c r="F6" t="n">
-        <v>218345.9242001172</v>
+        <v>298532.1730743746</v>
       </c>
       <c r="G6" t="n">
-        <v>158559.14016033</v>
+        <v>287528.8079338312</v>
       </c>
       <c r="H6" t="n">
         <v>316618.6171064391</v>
       </c>
       <c r="I6" t="n">
-        <v>316618.6171064391</v>
+        <v>316618.617106439</v>
       </c>
       <c r="J6" t="n">
         <v>141967.2683887329</v>
@@ -26549,19 +26551,19 @@
         <v>316618.6171064391</v>
       </c>
       <c r="L6" t="n">
-        <v>316618.6171064391</v>
+        <v>316618.617106439</v>
       </c>
       <c r="M6" t="n">
-        <v>308129.5354030982</v>
+        <v>190867.5287707485</v>
       </c>
       <c r="N6" t="n">
         <v>316618.6171064391</v>
       </c>
       <c r="O6" t="n">
-        <v>218345.9242001172</v>
+        <v>298532.1730743746</v>
       </c>
       <c r="P6" t="n">
-        <v>218345.9242001172</v>
+        <v>298532.1730743746</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186338</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>370.2548715022042</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>369.767726252616</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.17580493063136</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>102.986369995735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>369.8422500230728</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>3.329665100429963</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>80.50874676570899</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>39.52293549722771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.33888453491818</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>268.2784653227399</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.07653710780755</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34793,13 +34795,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888435</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,10 +34865,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34945,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P6" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="P6" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35179,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35191,7 +35193,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>651.931657540612</v>
+        <v>39.34908037598484</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="O12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>651.931657540612</v>
+        <v>7.71589676577878</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>276.880171690467</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>840.7541590122592</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36139,7 +36141,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>19.94667551886812</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>363.3683445154879</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>353.2215526444228</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>363.3683445154875</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>948.3041150982283</v>
       </c>
       <c r="N41" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.8505511674832</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>406.6119088543373</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>532.2671340056907</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1871952.698584809</v>
+        <v>1871346.610955913</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797167</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>30.15774997692755</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4356504767623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>166.3197703738364</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>73.21290343807746</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>83.71046610478354</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.6976902451405</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>161.0265270205335</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>109.142675762685</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>308.5266790008299</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>220.931750064246</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>148.6041873872578</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>296.8022056924776</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>100.366508893361</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>90.59002589087493</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,13 +1821,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>266.8594808797422</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>14.14416275345333</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>98.73120706589812</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>79.91587893911135</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016041</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>24.62703520776964</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>104.6905595884843</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>126.7641785672305</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>134.2263799291272</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3982,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>378.6556239648835</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>318.2330637490527</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.01098805494637</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.477214236518</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C2" t="n">
-        <v>573.3347414199409</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>137.4249565943854</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187676</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4521,19 +4521,19 @@
         <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4576,10 +4576,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>484.3594947663694</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>484.3594947663694</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>269.6156404768161</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4813,16 +4813,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>518.3865980530361</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1179.226652594814</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2190.771296621483</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.95624607292</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>2174.854186692635</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>2170.608467032693</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6703941018225</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.719889953642</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885365</v>
@@ -5047,22 +5047,22 @@
         <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.785655143938</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580385</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150691</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984088</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942682</v>
@@ -5071,22 +5071,22 @@
         <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4345.630789443536</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3983.013839377362</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3578.158384788396</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797662</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>973.664734160825</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>973.664734160825</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>807.7867413623477</v>
       </c>
       <c r="E13" t="n">
-        <v>322.3322228538038</v>
+        <v>638.028737613085</v>
       </c>
       <c r="F13" t="n">
-        <v>322.3322228538038</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
         <v>322.3322228538038</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.862362770219</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.719889953642</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D14" t="n">
-        <v>1356.810105128087</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E14" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
@@ -5284,10 +5284,10 @@
         <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.830065571713</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M14" t="n">
-        <v>2325.877900782264</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N14" t="n">
         <v>2333.516638580385</v>
@@ -5305,25 +5305,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D16" t="n">
-        <v>517.7793272676133</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E16" t="n">
-        <v>348.0213235183506</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F16" t="n">
-        <v>348.0213235183506</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G16" t="n">
-        <v>182.4300485441783</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885365</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>2018.353385968536</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>934.6074576929161</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2009.667423945775</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2009.667423945775</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5934,16 +5934,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
         <v>2117.975449367836</v>
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6189,10 +6189,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.773653488281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2597.774136893195</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2351.89469047165</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2627364873769</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7131,16 +7131,16 @@
         <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7201,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7311,22 +7311,22 @@
         <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716197</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2188.014873871654</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885365</v>
@@ -7414,25 +7414,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L41" t="n">
-        <v>928.1203912770317</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.941465224278</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N41" t="n">
-        <v>2992.672448660725</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231031</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942682</v>
@@ -7441,22 +7441,22 @@
         <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815721</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132738</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066564</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477597</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.600568056908</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.314444356562</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>396.5477556863887</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>396.5477556863887</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>396.5477556863887</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>396.5477556863887</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>396.5477556863887</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
         <v>1757.009860797662</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>918.290317906933</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>745.7286063901579</v>
+        <v>653.8014906264534</v>
       </c>
       <c r="D43" t="n">
-        <v>745.7286063901579</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="E43" t="n">
-        <v>575.9706026408952</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="F43" t="n">
-        <v>399.2635486026514</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>233.6722736284791</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885365</v>
@@ -7608,13 +7608,13 @@
         <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.920361978399</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1337.528607311812</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1110.10893662592</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2466.979950121664</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C44" t="n">
-        <v>2028.837477305088</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E44" t="n">
         <v>1212.582304216026</v>
@@ -7651,22 +7651,22 @@
         <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1203912770317</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>2003.180357529891</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M44" t="n">
-        <v>3160.228192740442</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N44" t="n">
-        <v>4285.959176176888</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>4285.959176176888</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4285.959176176888</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942682</v>
@@ -7675,25 +7675,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>4125.563562316574</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W44" t="n">
-        <v>3720.708107727608</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X44" t="n">
-        <v>3301.565644306919</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y44" t="n">
-        <v>2893.279520606572</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>279.374977592049</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>279.374977592049</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885365</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1446.476159513304</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8224,13 +8224,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8461,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847602</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,10 +8695,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.34908037598484</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8707,13 +8707,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>622.3470007018923</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N14" t="n">
-        <v>7.71589676577878</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>840.7541590122592</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9421,7 +9421,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>973.8822356326336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10126,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>19.94667551886812</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10606,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>350.8506558504741</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>363.3683445154875</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>948.3041150982283</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11077,13 +11077,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>406.6119088543373</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>125.2343690875811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>194.0192887222364</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>48.19697732171628</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>26.33579611060355</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.2343690875811</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>329.0704884999267</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.6291869796176</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.446659489829187</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>160.795820744408</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>58.91774794908518</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>90.92021546249596</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.5921776627229</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>63.14631452530514</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308167769</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>329.0704884999266</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.07191583437677</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>135.0797604404441</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>52.89506301241636</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>111.203933644235</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.1344859240864</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>494071.4709885491</v>
+        <v>494071.4709885494</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>494071.4709885494</v>
+        <v>494071.4709885492</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>370553.6032414118</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="F2" t="n">
         <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="H2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="I2" t="n">
         <v>395143.1881030142</v>
-      </c>
-      <c r="H2" t="n">
-        <v>395143.1881030143</v>
-      </c>
-      <c r="I2" t="n">
-        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="M2" t="n">
-        <v>395143.1881030143</v>
-      </c>
       <c r="N2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="O2" t="n">
-        <v>370553.6032414119</v>
+        <v>370553.6032414118</v>
       </c>
       <c r="P2" t="n">
         <v>370553.6032414119</v>
@@ -26435,7 +26435,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26453,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
         <v>756.1546847085233</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085234</v>
+        <v>756.1546847085233</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9306.139446246787</v>
+        <v>-9306.139446246802</v>
       </c>
       <c r="C6" t="n">
-        <v>214393.559137798</v>
+        <v>214393.5591377981</v>
       </c>
       <c r="D6" t="n">
-        <v>214393.559137798</v>
+        <v>214393.5591377981</v>
       </c>
       <c r="E6" t="n">
-        <v>147866.4195026266</v>
+        <v>147761.2298803721</v>
       </c>
       <c r="F6" t="n">
-        <v>298532.1730743746</v>
+        <v>298426.9834521199</v>
       </c>
       <c r="G6" t="n">
-        <v>287528.8079338312</v>
+        <v>287505.5835944486</v>
       </c>
       <c r="H6" t="n">
-        <v>316618.6171064391</v>
+        <v>316595.3927670564</v>
       </c>
       <c r="I6" t="n">
-        <v>316618.617106439</v>
+        <v>316595.3927670564</v>
       </c>
       <c r="J6" t="n">
-        <v>141967.2683887329</v>
+        <v>141944.0440493503</v>
       </c>
       <c r="K6" t="n">
-        <v>316618.6171064391</v>
+        <v>316595.3927670564</v>
       </c>
       <c r="L6" t="n">
-        <v>316618.617106439</v>
+        <v>316595.3927670564</v>
       </c>
       <c r="M6" t="n">
-        <v>190867.5287707485</v>
+        <v>190844.3044313657</v>
       </c>
       <c r="N6" t="n">
-        <v>316618.6171064391</v>
+        <v>316595.3927670564</v>
       </c>
       <c r="O6" t="n">
-        <v>298532.1730743746</v>
+        <v>298426.9834521199</v>
       </c>
       <c r="P6" t="n">
-        <v>298532.1730743746</v>
+        <v>298426.9834521199</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>226.4723296792257</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>102.986369995735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>330.9903590252657</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>80.50874676570899</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.33888453491818</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>270.5241599567664</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.07653710780755</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30428,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34868,16 +34868,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847602</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.34908037598484</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>622.3470007018923</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N14" t="n">
-        <v>7.71589676577878</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>840.7541590122592</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36141,7 +36141,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>973.8822356326336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37089,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>19.94667551886812</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.881569965118661e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>350.8506558504741</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>363.3683445154875</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>948.3041150982283</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37797,13 +37797,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>406.6119088543373</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
